--- a/Agile_Template.xlsx
+++ b/Agile_Template.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="157">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -205,7 +205,7 @@
     <t>Google</t>
   </si>
   <si>
-    <t>yashwanth</t>
+    <t>yaswanth</t>
   </si>
   <si>
     <t>S2</t>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>W3 schools</t>
-  </si>
-  <si>
-    <t>ghousiya</t>
   </si>
   <si>
     <t>Document discussion(Agile document)</t>
@@ -238,7 +235,7 @@
     <t>Versal</t>
   </si>
   <si>
-    <t>joshnavi,      ghousiya</t>
+    <t>joshnavi,      yaswanth</t>
   </si>
   <si>
     <t>S5</t>
@@ -275,7 +272,7 @@
 for frontend</t>
   </si>
   <si>
-    <t>yashwanth,    joshnavi,snehith</t>
+    <t>yaswanth,    joshnavi,snehith</t>
   </si>
   <si>
     <t>S8</t>
@@ -287,7 +284,7 @@
     <t>Node.js, Express.js for backend</t>
   </si>
   <si>
-    <t>yashwanth,  joshnavi,snehith,   ghousiya</t>
+    <t>yaswanth,  joshnavi,snehith</t>
   </si>
   <si>
     <t>S9</t>
@@ -299,10 +296,7 @@
     <t>Python,flask</t>
   </si>
   <si>
-    <t>yashwanth,  ghousiya,   joshnavi</t>
-  </si>
-  <si>
-    <t>2- In Progress</t>
+    <t>yaswanth,   joshnavi</t>
   </si>
   <si>
     <t>S10</t>
@@ -392,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>joshnavi,  ghousiya</t>
+    <t>joshnavi,  yaswanth</t>
   </si>
   <si>
     <t>Coding</t>
@@ -420,7 +414,10 @@
 </t>
   </si>
   <si>
-    <t>yashwanth, joshnavi,snehith</t>
+    <t>yaswanth, joshnavi,snehith</t>
+  </si>
+  <si>
+    <t>yaswanth,  joshnavi</t>
   </si>
   <si>
     <t>Integration Test</t>
@@ -569,7 +566,7 @@
     <t>25-8-2025</t>
   </si>
   <si>
-    <t>joshnavi,ghousiya</t>
+    <t>joshnavi,yaswanth</t>
   </si>
   <si>
     <t>start working on frontend part of the project</t>
@@ -605,7 +602,7 @@
     <t>18-9-2025</t>
   </si>
   <si>
-    <t>preparing model trining of the project</t>
+    <t>preparing model training of the project</t>
   </si>
   <si>
     <t xml:space="preserve">delaying in the model deployment </t>
@@ -626,7 +623,7 @@
     <t>26-9-2025</t>
   </si>
   <si>
-    <t>yashwanth,joshnavi,snehith</t>
+    <t>yaswanth,joshnavi,snehith</t>
   </si>
   <si>
     <t>participated in the meeting for the improvements</t>
@@ -1567,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>14</v>
@@ -1584,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
@@ -1593,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>14</v>
@@ -1601,25 +1598,25 @@
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>14</v>
@@ -1627,22 +1624,22 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -1653,22 +1650,22 @@
     </row>
     <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>17</v>
@@ -1679,22 +1676,22 @@
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>17</v>
@@ -1705,25 +1702,25 @@
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>14</v>
@@ -1731,25 +1728,25 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>14</v>
@@ -1757,54 +1754,54 @@
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
@@ -3171,7 +3168,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -3204,70 +3201,70 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="S2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="X2" s="27"/>
       <c r="Y2" s="27"/>
@@ -3348,7 +3345,7 @@
     </row>
     <row r="4" ht="33.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -3396,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>14</v>
@@ -3470,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>14</v>
@@ -3532,7 +3529,7 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="38">
         <v>45892.0</v>
@@ -3541,10 +3538,10 @@
         <v>45895.0</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>14</v>
@@ -3606,7 +3603,7 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="38">
         <v>45896.0</v>
@@ -3615,10 +3612,10 @@
         <v>45898.0</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>14</v>
@@ -3680,7 +3677,7 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="38">
         <v>45899.0</v>
@@ -3689,10 +3686,10 @@
         <v>45905.0</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>14</v>
@@ -3754,7 +3751,7 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="45">
         <v>45906.0</v>
@@ -3766,7 +3763,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>14</v>
@@ -3828,7 +3825,7 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="45">
         <v>45912.0</v>
@@ -3840,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>14</v>
@@ -3902,7 +3899,7 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="45">
         <v>45916.0</v>
@@ -3914,7 +3911,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>14</v>
@@ -3976,7 +3973,7 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="48">
         <v>45921.0</v>
@@ -3985,10 +3982,10 @@
         <v>45923.0</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>14</v>
@@ -4050,7 +4047,7 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="52">
         <v>45924.0</v>
@@ -4059,10 +4056,10 @@
         <v>45926.0</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>14</v>
@@ -4124,7 +4121,7 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="45">
         <v>45928.0</v>
@@ -4133,13 +4130,13 @@
         <v>45929.0</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I15" s="42">
         <v>3.0</v>
@@ -4198,7 +4195,7 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="45">
         <v>45930.0</v>
@@ -4207,13 +4204,13 @@
         <v>45932.0</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I16" s="42">
         <v>4.0</v>
@@ -4296,7 +4293,7 @@
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
       <c r="C18" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -4354,7 +4351,7 @@
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -4384,7 +4381,7 @@
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -4414,7 +4411,7 @@
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -4556,7 +4553,7 @@
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
@@ -4586,7 +4583,7 @@
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
@@ -4616,7 +4613,7 @@
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -4758,7 +4755,7 @@
       <c r="A34" s="35"/>
       <c r="B34" s="36"/>
       <c r="C34" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
@@ -4788,7 +4785,7 @@
       <c r="A35" s="35"/>
       <c r="B35" s="36"/>
       <c r="C35" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
@@ -4818,7 +4815,7 @@
       <c r="A36" s="35"/>
       <c r="B36" s="36"/>
       <c r="C36" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
@@ -4960,7 +4957,7 @@
       <c r="A41" s="35"/>
       <c r="B41" s="36"/>
       <c r="C41" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
@@ -4990,7 +4987,7 @@
       <c r="A42" s="35"/>
       <c r="B42" s="36"/>
       <c r="C42" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
@@ -5104,7 +5101,7 @@
       <c r="A46" s="35"/>
       <c r="B46" s="36"/>
       <c r="C46" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
@@ -5162,7 +5159,7 @@
       <c r="A48" s="35"/>
       <c r="B48" s="36"/>
       <c r="C48" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
@@ -31913,16 +31910,16 @@
   <sheetData>
     <row r="1" ht="49.5" customHeight="1">
       <c r="A1" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="C1" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="D1" s="76" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="77"/>
       <c r="F1" s="77"/>
@@ -31930,114 +31927,114 @@
     </row>
     <row r="2" ht="36.0" customHeight="1">
       <c r="A2" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="79" t="s">
+    </row>
+    <row r="3" ht="38.25" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" ht="38.25" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="79" t="s">
+      <c r="C3" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="79" t="s">
+    </row>
+    <row r="4" ht="38.25" customHeight="1">
+      <c r="A4" s="78" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" ht="38.25" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="79" t="s">
+    </row>
+    <row r="5" ht="24.75" customHeight="1">
+      <c r="A5" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="79" t="s">
+      <c r="C5" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="D5" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="79" t="s">
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="D6" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="79" t="s">
+    </row>
+    <row r="7" ht="29.25" customHeight="1">
+      <c r="A7" s="78" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" ht="29.25" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="C7" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="D7" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="79" t="s">
+    </row>
+    <row r="8" ht="27.0" customHeight="1">
+      <c r="A8" s="78" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" ht="27.0" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="C8" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="D8" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="79" t="s">
+    </row>
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="78" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" ht="27.75" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="C9" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="D9" s="79" t="s">
         <v>121</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1"/>
@@ -33061,31 +33058,31 @@
   <sheetData>
     <row r="1" ht="45.75" customHeight="1">
       <c r="A1" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="G1" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="H1" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="I1" s="81" t="s">
         <v>130</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>131</v>
       </c>
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
@@ -33110,28 +33107,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>138</v>
       </c>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
@@ -33156,28 +33153,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="85">
         <v>45786.0</v>
       </c>
       <c r="E3" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="H3" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="I3" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>144</v>
       </c>
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
@@ -33202,28 +33199,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="85">
         <v>45939.0</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="H4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="I4" s="54" t="s">
         <v>148</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>149</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="84"/>
@@ -33248,28 +33245,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="E5" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="F5" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="G5" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="H5" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="I5" s="54" t="s">
         <v>156</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>157</v>
       </c>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
